--- a/rostering.xlsx
+++ b/rostering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuan Xin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenley\Desktop\Youtube API Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380CC29B-72D2-40FA-8892-E26DDF80E10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC00E8-C425-4568-8244-54D8EBE12DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1890" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C9730D93-4836-45B6-BD7B-4CC8AF8EF740}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9730D93-4836-45B6-BD7B-4CC8AF8EF740}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
   <si>
     <t>http://www.edenbp.org/</t>
   </si>
@@ -119,30 +116,6 @@
     <t>伊甸圣经长老会</t>
   </si>
   <si>
-    <t>Jan 08, 2023</t>
-  </si>
-  <si>
-    <t>Jan 15, 2023</t>
-  </si>
-  <si>
-    <t>Jan 22, 2023</t>
-  </si>
-  <si>
-    <t>Jan 29, 2023</t>
-  </si>
-  <si>
-    <t>Feb 05, 2023</t>
-  </si>
-  <si>
-    <t>Feb 12, 2023</t>
-  </si>
-  <si>
-    <t>Feb 19, 2023</t>
-  </si>
-  <si>
-    <t>Feb 26, 2023</t>
-  </si>
-  <si>
     <t>05 Mar 2023</t>
   </si>
   <si>
@@ -240,63 +213,15 @@
   </si>
   <si>
     <t xml:space="preserve">讲题: </t>
-  </si>
-  <si>
-    <t>Mar 05, 2023</t>
-  </si>
-  <si>
-    <t>Mar 12, 2023</t>
-  </si>
-  <si>
-    <t>Mar 19, 2023</t>
-  </si>
-  <si>
-    <t>Mar 26, 2023</t>
-  </si>
-  <si>
-    <t>Apr 02, 2023</t>
-  </si>
-  <si>
-    <t>Apr 09, 2023</t>
-  </si>
-  <si>
-    <t>Apr 16, 2023</t>
-  </si>
-  <si>
-    <t>Apr 23, 2023</t>
-  </si>
-  <si>
-    <t>Apr 30, 2023</t>
-  </si>
-  <si>
-    <t>May 07, 2023</t>
-  </si>
-  <si>
-    <t>May 14, 2023</t>
-  </si>
-  <si>
-    <t>May 21, 2023</t>
-  </si>
-  <si>
-    <t>May 28, 2023</t>
-  </si>
-  <si>
-    <t>Jun 04, 2023</t>
-  </si>
-  <si>
-    <t>Jun 11, 2023</t>
-  </si>
-  <si>
-    <t>Jun 18, 2023</t>
-  </si>
-  <si>
-    <t>Jun 25, 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,10 +266,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,11 +586,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2050EAB3-F963-42E3-9716-8152890B6537}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -705,11 +629,11 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
+      <c r="I1" s="3">
+        <v>44934</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,11 +661,11 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
+      <c r="I2" s="3">
+        <v>44941</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,11 +693,11 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>29</v>
+      <c r="I3" s="3">
+        <v>44948</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,11 +725,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
+      <c r="I4" s="3">
+        <v>44955</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,11 +757,11 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
+      <c r="I5" s="3">
+        <v>44962</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,11 +789,11 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>32</v>
+      <c r="I6" s="3">
+        <v>44969</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,11 +822,11 @@
         <f>J7&amp;C7</f>
         <v>讲题: 世界我不爱？</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
+      <c r="I7" s="3">
+        <v>44976</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -930,22 +854,22 @@
       <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
+      <c r="I8" s="3">
+        <v>44983</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -960,25 +884,25 @@
         <v>0</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ref="H9:H25" si="0">J9&amp;C9</f>
+        <f t="shared" ref="H9" si="0">J9&amp;C9</f>
         <v>讲题: 主，我愿像</v>
       </c>
-      <c r="I9" t="s">
-        <v>68</v>
+      <c r="I9" s="3">
+        <v>44990</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -995,22 +919,22 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>69</v>
+      <c r="I10" s="3">
+        <v>44997</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1025,25 +949,25 @@
         <v>0</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H25" si="1">J11&amp;C11</f>
+        <f t="shared" ref="H11" si="1">J11&amp;C11</f>
         <v>讲题: 圣徒的爱与恨</v>
       </c>
-      <c r="I11" t="s">
-        <v>70</v>
+      <c r="I11" s="3">
+        <v>45004</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1060,22 +984,22 @@
       <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
-        <v>71</v>
+      <c r="I12" s="3">
+        <v>45011</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1093,22 +1017,22 @@
         <f>J13&amp;C13</f>
         <v>讲题: 不信有时</v>
       </c>
-      <c r="I13" t="s">
-        <v>72</v>
+      <c r="I13" s="3">
+        <v>45018</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1125,22 +1049,22 @@
       <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>73</v>
+      <c r="I14" s="3">
+        <v>45025</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1155,25 +1079,25 @@
         <v>0</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ref="H15:H25" si="2">J15&amp;C15</f>
+        <f t="shared" ref="H15" si="2">J15&amp;C15</f>
         <v>讲题: 爱，我真懂</v>
       </c>
-      <c r="I15" t="s">
-        <v>74</v>
+      <c r="I15" s="3">
+        <v>45032</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1190,22 +1114,22 @@
       <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="I16" t="s">
-        <v>75</v>
+      <c r="I16" s="3">
+        <v>45039</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1220,25 +1144,25 @@
         <v>0</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ref="H17:H25" si="3">J17&amp;C17</f>
+        <f t="shared" ref="H17" si="3">J17&amp;C17</f>
         <v>讲题: 永生有确据？</v>
       </c>
-      <c r="I17" t="s">
-        <v>76</v>
+      <c r="I17" s="3">
+        <v>45046</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1255,22 +1179,22 @@
       <c r="H18" t="s">
         <v>25</v>
       </c>
-      <c r="I18" t="s">
-        <v>77</v>
+      <c r="I18" s="3">
+        <v>45053</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1285,25 +1209,25 @@
         <v>0</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H25" si="4">J19&amp;C19</f>
+        <f t="shared" ref="H19" si="4">J19&amp;C19</f>
         <v>讲题: 孝亲主日</v>
       </c>
-      <c r="I19" t="s">
-        <v>78</v>
+      <c r="I19" s="3">
+        <v>45060</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1320,22 +1244,22 @@
       <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" t="s">
-        <v>79</v>
+      <c r="I20" s="3">
+        <v>45067</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1350,25 +1274,25 @@
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:H25" si="5">J21&amp;C21</f>
+        <f t="shared" ref="H21" si="5">J21&amp;C21</f>
         <v>讲题: 自由题</v>
       </c>
-      <c r="I21" t="s">
-        <v>80</v>
+      <c r="I21" s="3">
+        <v>45074</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1385,22 +1309,22 @@
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" t="s">
-        <v>81</v>
+      <c r="I22" s="3">
+        <v>45081</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1415,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ref="H23:H25" si="6">J23&amp;C23</f>
+        <f t="shared" ref="H23" si="6">J23&amp;C23</f>
         <v>讲题: 自由题</v>
       </c>
-      <c r="I23" t="s">
-        <v>82</v>
+      <c r="I23" s="3">
+        <v>45088</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1450,22 +1374,22 @@
       <c r="H24" t="s">
         <v>25</v>
       </c>
-      <c r="I24" t="s">
-        <v>83</v>
+      <c r="I24" s="3">
+        <v>45095</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1483,12 +1407,48 @@
         <f t="shared" ref="H25" si="7">J25&amp;C25</f>
         <v>讲题: 青年主日</v>
       </c>
-      <c r="I25" t="s">
-        <v>84</v>
+      <c r="I25" s="3">
+        <v>45102</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
